--- a/Fruits/fruits.xlsx
+++ b/Fruits/fruits.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pratap.lakshman\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08840802-E66C-4C3E-96FC-F389DAACF980}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0442575-C49F-4C91-BC00-13F616B2226E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8070" xr2:uid="{40FFBE93-714E-44E5-A718-D865EF048AF1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9580" windowHeight="2700" xr2:uid="{A257FBCF-A1E8-4401-905A-92C089564F89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$28</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="8">
   <si>
     <t>Weight</t>
   </si>
@@ -36,16 +39,19 @@
     <t>Fruit</t>
   </si>
   <si>
+    <t>Bumpy</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
     <t>Smooth</t>
   </si>
   <si>
     <t>Apple</t>
   </si>
   <si>
-    <t>Bumpy</t>
-  </si>
-  <si>
-    <t>Orange</t>
+    <t>Pear</t>
   </si>
 </sst>
 </file>
@@ -81,8 +87,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,181 +405,236 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46446B0E-64B9-4725-AA15-251EAF917554}">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DEA556F-38BB-4E82-AEFE-C2CD8BD17CD3}">
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>150</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="A2" s="1">
+        <v>130</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>151</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="A3" s="1">
+        <v>131</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>154</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" s="1">
+        <v>132</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>152</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" s="1">
+        <v>136</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>157</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="A6" s="1">
+        <v>139</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>158</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
+      <c r="A7" s="1">
+        <v>140</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>130</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="1">
+        <v>140</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>141</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>134</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>141</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>142</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>133</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>142</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>144</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>132</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>144</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>145</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>131</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>136</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>129</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>137</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>145</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C28" xr:uid="{27A6F55D-74A1-46D9-B64A-727DAB8A6157}">
+    <sortState ref="A2:C28">
+      <sortCondition ref="A1:A28"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>